--- a/va_facility_data_2025-02-20/New City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''New%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/New City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''New%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R35b387d17ac5445bac4e92d37866a602"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc8a85f2192cb40c3b59307ef2a8ae5ec"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R49f5ab667d9a4a0b8e083890769f250a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R1eb77c94a1ff4bf28cb73ff2e95899f3"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7bb2ec1d410e4f92bf7bad2d01734bed"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R77c1ffbfc134423e824d6e2c3c540d18"/>
   </x:sheets>
 </x:workbook>
 </file>
